--- a/biology/Histoire de la zoologie et de la botanique/Denis_Gascoigne_Lillie/Denis_Gascoigne_Lillie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Denis_Gascoigne_Lillie/Denis_Gascoigne_Lillie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Gascoigne Lillie est un zoologiste britannique, né en 1888 et mort en 1963.
 Il étudie la zoologie à l’Université de Birmingham et au St John's College (Université de Cambridge) de 1903 à 1910. En 1910, il est zoologiste dans l’expédition en Antarctique conduite par Robert Falcon Scott (1868-1912).
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1915 : Cetacea ... With fourteen figures in the text and plates I.-VIII. 	In: London.-British Museum. British Antarctic (“Terra Nova”) Expedition, 1910. Natural History Report. Zoology. vol. 1. no. 3. 1914, etc. 4º.
 1914 : avec Sir Sidney Frederic Harmer (1862-1950), List of Collecting Stations ... With four maps. 	In: London.-British Museum. British Antarctic -“Terra Nova”- Expedition, 1910. Natural History Report. (Zoology. vol. II. no. 1.) 1914, etc. 4º.</t>
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Archives in London and the M25 area</t>
         </is>
